--- a/similarities/split_global/harmonic_similarity_timestamps_4.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,21 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>isophonics_44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,684 +508,714 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D'], ['D', 'A', 'B:min'], ['G', 'A', 'D']]</t>
+          <t>['A:min', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb'], ['Eb', 'Bb/3', 'C:min'], ['Ab', 'Bb', 'Eb']]</t>
+          <t>['C:min', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369'), ('0:00:03.117845', '0:00:09.979342'), ('0:00:09.979342', '0:00:16.701519')]</t>
+          <t>('0:00:02.850816', '0:00:06.821428')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.359000', '0:00:13.688000'), ('0:00:21.412000', '0:00:25.282000'), ('0:00:07.043000', '0:00:10.286000')]</t>
+          <t>('0:00:31.656000', '0:00:33.498000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=3.117845', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=9.979342']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-44#t=2.850816</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=21.412', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=31.656</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:07.702000', '0:00:10.952000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000')]</t>
+          <t>('0:00:13.723015', '0:00:16.393310')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=13.723015</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:00:01.014823', '0:00:06.126439')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=1.014823</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>['C:maj/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:54.760000', '0:01:04.340000')]</t>
+          <t>('0:00:56.440000', '0:01:06.340000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:59.292687')]</t>
+          <t>('0:00:36.340000', '0:00:37.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=56.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=36.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.520000', '0:00:13.120000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:09.120000', '0:02:11.120000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=5.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=129.12']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:29.160000', '0:00:31.680000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.071496', '0:00:25.606371')]</t>
+          <t>('0:00:18', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj', 'D:7/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min7', 'G:7', 'C', 'G:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:01:05.760000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:04.240000', '0:00:15.040000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.080000', '0:01:11.120000')]</t>
+          <t>('0:00:08.440000', '0:00:17.540000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=63.08']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F', 'Bb', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:55.815287', '0:00:59.437845')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:01:28.497000', '0:01:32.370000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=55.815287</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=88.497</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:01:16.630000', '0:01:27.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:07.100000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:07.605000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=7.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Bb:7', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D', 'A', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7'], ['D:7', 'G:7', 'C']]</t>
+          <t>['E', 'B', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:52.500000', '0:00:57.750000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:00:06.536000', '0:00:15.078000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:55.728276', '0:02:04.366099'), ('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:01.480839', '0:00:26.140430')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=52.5', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=115.728276', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=1.480839</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
